--- a/SSIS/Data/X Factor contestants.xlsx
+++ b/SSIS/Data/X Factor contestants.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t xml:space="preserve">Series </t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Male﻿</t>
+  </si>
+  <si>
+    <t>James Arthur Sr</t>
   </si>
 </sst>
 </file>
@@ -600,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +731,23 @@
         <v>41252</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41139</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41252</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
